--- a/hz-link/src/main/resources/excel/t.xlsx
+++ b/hz-link/src/main/resources/excel/t.xlsx
@@ -1,25 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5C57B0-055D-416F-A0F9-9D5F6651B3F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -31,14 +39,74 @@
             <charset val="134"/>
           </rPr>
           <t>leonate:
-jx:area(lastCell="G10")
-jx:each(items="departments", var="department", lastCell="G10" multisheet="sheetNames")
-jx:if(condition="department.name=='d'", lastCell="F7", areas=["A7:F7","A12:F12"])
-jx:if(condition="department.name=='dd'", lastCell="C7", areas=["A7:C7","A16:C16"])</t>
+jx:area(lastCell="H11")
+jx:each(items="eachData", var="dList", lastCell="H11" multisheet="sheetNames")
+jx:if(condition="dList.sheetEngName=='tudidiya'", lastCell="G1",areas=["A1:G1"])</t>
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>leonate:
+jx:if(condition="dList.sheetEngName=='jingyingyichang'", lastCell="G2", areas=["A2:G2"])</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>leonate:
+jx:if(condition="dList.sheetEngName=='huanbaochufa'", lastCell="G3", areas=["A3:G3"])</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>leonate:
+jx:if(condition="dList.sheetEngName=='dongchandiya'", lastCell="G4", areas=["A4:G4"])</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>leonate:
+jx:if(condition="dList.sheetEngName=='sifapaimai'", lastCell="G5", areas=["A5:G5"])</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -60,9 +128,79 @@
             <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="department.staff", var="employee", lastCell="F8")
-jx:if(condition="department.name=='d'", lastCell="F8",areas=["A8:F8","A13:F13"])
-jx:if(condition="department.name=='dd'", lastCell="C8", areas=["A8:C8","A17:C17"])</t>
+jx:each(items="dList.dataList", var="data", lastCell="G10")
+jx:if(condition="dList.sheetEngName=='tudidiya'", lastCell="G6", areas=["A6:G6"])</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>leonate:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+jx:if(condition="dList.sheetEngName=='jingyingyichang'", lastCell="G7",areas=["A7:G7"])</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>leonate:
+jx:if(condition="dList.sheetEngName=='huanbaochufa'", lastCell="G8",areas=["A8:G8"])</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>leonate:
+jx:if(condition="dList.sheetEngName=='dongchandiya'", lastCell="G9",areas=["A9:G9"])</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>leonate:
+jx:if(condition="dList.sheetEngName=='sifapaimai'", lastCell="G10",areas=["A10:G10"])</t>
         </r>
       </text>
     </comment>
@@ -71,52 +209,180 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
-  <si>
-    <t>Employee</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Birth Date</t>
-  </si>
-  <si>
-    <t>Payment</t>
-  </si>
-  <si>
-    <t>Bonus</t>
-  </si>
-  <si>
-    <t>${employee.name}</t>
-  </si>
-  <si>
-    <t>${employee.age} years</t>
-  </si>
-  <si>
-    <t>${employee.birthDate}</t>
-  </si>
-  <si>
-    <t>${employee.payment}</t>
-  </si>
-  <si>
-    <t>${employee.bonus}</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>$[D13*(1+E13)]</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+  <si>
+    <t>${data.InnerCompanyName}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.MortgagorNature}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.ObligeeNo}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.Address}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.UsufructNo}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.MortgagePurpose}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经营异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地抵押</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环保处罚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.CaseNo}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.PunishGov}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动产抵押</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.Ex2Amount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.RegisterOffice}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司法拍卖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.Context}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.ActionRemark}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.Title}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.ExecuteGov}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.InnerCompanyName}</t>
+  </si>
+  <si>
+    <t>${data.AddReason}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.RemoveDecisionOffice}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.DecisionOffice}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.RomoveReason}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.PunishmentResult}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.RegisterNo}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.LandSign}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宗地标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抵押人性质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抵押土地用途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地使用权证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宗地地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地他项权利人证号</t>
+  </si>
+  <si>
+    <t>列入经营异常名录原因</t>
+  </si>
+  <si>
+    <t>移除决定机关</t>
+  </si>
+  <si>
+    <t>作出决定机关</t>
+  </si>
+  <si>
+    <t>移出经营异常名录原因</t>
+  </si>
+  <si>
+    <t>公司名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处罚单位</t>
+  </si>
+  <si>
+    <t>处罚结果</t>
+  </si>
+  <si>
+    <t>登记机关</t>
+  </si>
+  <si>
+    <t>登记编号</t>
+  </si>
+  <si>
+    <t>拍卖时间</t>
+  </si>
+  <si>
+    <t>标题</t>
+  </si>
+  <si>
+    <t>委托法院</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yy;@"/>
-  </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,42 +421,22 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -198,36 +444,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -237,6 +459,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -285,7 +510,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -318,9 +543,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -353,6 +595,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -528,86 +787,193 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="23.625" customWidth="1"/>
+    <col min="2" max="2" width="28.75" customWidth="1"/>
+    <col min="3" max="3" width="25.25" customWidth="1"/>
+    <col min="4" max="4" width="24.875" customWidth="1"/>
+    <col min="5" max="5" width="39" customWidth="1"/>
+    <col min="6" max="6" width="24.875" customWidth="1"/>
+    <col min="7" max="7" width="29.875" customWidth="1"/>
+    <col min="8" max="8" width="25.75" customWidth="1"/>
+    <col min="9" max="9" width="15.75" customWidth="1"/>
+    <col min="10" max="10" width="11.625" customWidth="1"/>
+    <col min="11" max="11" width="15.75" customWidth="1"/>
+    <col min="12" max="12" width="19.25" customWidth="1"/>
+    <col min="13" max="13" width="23.25" customWidth="1"/>
+    <col min="14" max="14" width="14.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="2"/>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="2"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D6" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E6" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F6" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
         <v>10</v>
       </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>11</v>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>7</v>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/hz-link/src/main/resources/excel/t.xlsx
+++ b/hz-link/src/main/resources/excel/t.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5C57B0-055D-416F-A0F9-9D5F6651B3F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B173B9-D3F1-4F09-B913-7FD9470BE2DC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -39,8 +39,8 @@
             <charset val="134"/>
           </rPr>
           <t>leonate:
-jx:area(lastCell="H11")
-jx:each(items="eachData", var="dList", lastCell="H11" multisheet="sheetNames")
+jx:area(lastCell="H25")
+jx:each(items="eachData", var="dList", lastCell="H25" multisheet="sheetNames")
 jx:if(condition="dList.sheetEngName=='tudidiya'", lastCell="G1",areas=["A1:G1"])</t>
         </r>
       </text>
@@ -106,7 +106,23 @@
         </r>
       </text>
     </comment>
-    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{702B8A80-C51D-431D-A8BE-C7B4CA164ECE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>leonate:
+jx:if(condition="dList.sheetEngName=='noData'", lastCell="G15", areas=["A6:G15"])</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -128,12 +144,12 @@
             <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="dList.dataList", var="data", lastCell="G10")
-jx:if(condition="dList.sheetEngName=='tudidiya'", lastCell="G6", areas=["A6:G6"])</t>
+jx:each(items="dList.dataList", var="data", lastCell="G20")
+jx:if(condition="dList.sheetEngName=='tudidiya'", lastCell="G16", areas=["A16:G16"])</t>
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="A17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -155,11 +171,11 @@
             <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
-jx:if(condition="dList.sheetEngName=='jingyingyichang'", lastCell="G7",areas=["A7:G7"])</t>
+jx:if(condition="dList.sheetEngName=='jingyingyichang'", lastCell="G17",areas=["A17:G17"])</t>
         </r>
       </text>
     </comment>
-    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="A18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -170,11 +186,74 @@
             <charset val="134"/>
           </rPr>
           <t>leonate:
-jx:if(condition="dList.sheetEngName=='huanbaochufa'", lastCell="G8",areas=["A8:G8"])</t>
+jx:if(condition="dList.sheetEngName=='huanbaochufa'", lastCell="G</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>8",areas=["A</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>8:G</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>8"])</t>
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -185,11 +264,74 @@
             <charset val="134"/>
           </rPr>
           <t>leonate:
-jx:if(condition="dList.sheetEngName=='dongchandiya'", lastCell="G9",areas=["A9:G9"])</t>
+jx:if(condition="dList.sheetEngName=='dongchandiya'", lastCell="G</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>9",areas=["A</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>9:G</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>9"])</t>
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="A20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -200,7 +342,43 @@
             <charset val="134"/>
           </rPr>
           <t>leonate:
-jx:if(condition="dList.sheetEngName=='sifapaimai'", lastCell="G10",areas=["A10:G10"])</t>
+jx:if(condition="dList.sheetEngName=='sifapaimai'", lastCell="G20",areas=["A10:G</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>20</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>"])</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A21" authorId="0" shapeId="0" xr:uid="{6EFE3587-263B-4C97-8D34-664FAC8C636C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>leonate:
+jx:if(condition="dList.sheetEngName=='noData'", lastCell="G21",areas=["A21:G21"])</t>
         </r>
       </text>
     </comment>
@@ -209,7 +387,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>${data.InnerCompanyName}</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -376,6 +554,10 @@
   </si>
   <si>
     <t>委托法院</t>
+  </si>
+  <si>
+    <t>无数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -788,10 +970,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -896,86 +1078,92 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
         <v>0</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B16" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C16" t="s">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D16" t="s">
         <v>2</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E16" t="s">
         <v>3</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F16" t="s">
         <v>4</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>0</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B17" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C17" t="s">
         <v>21</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D17" t="s">
         <v>22</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B18" t="s">
         <v>19</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C18" t="s">
         <v>10</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B19" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B20" t="s">
         <v>19</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C20" t="s">
         <v>16</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D20" t="s">
         <v>17</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E20" t="s">
         <v>18</v>
       </c>
     </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
